--- a/Excel VM/test cases - compiler AST/in10.txt.xlsx
+++ b/Excel VM/test cases - compiler AST/in10.txt.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:UG63"/>
+  <dimension ref="A1:UG203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2558,35 +2558,35 @@
     </row>
     <row r="2" spans="1:553" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
-        <f ca="1">INDEX(A4:A63,A3)</f>
+        <f ca="1">INDEX(A4:A203,A3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="B2" t="e">
-        <f ca="1">INDEX(B4:B63,B3)</f>
+        <f ca="1">INDEX(B4:B203,B3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C2" t="e">
-        <f ca="1">INDEX(C4:C63,C3)</f>
+        <f ca="1">INDEX(C4:C203,C3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="D2" t="e">
-        <f ca="1">INDEX(D4:D63,D3)</f>
+        <f ca="1">INDEX(D4:D18,D3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" t="e">
-        <f ca="1">INDEX(E4:E63,E3)</f>
+        <f ca="1">INDEX(E4:E203,E3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="F2" t="e">
-        <f ca="1">INDEX(F4:F63,F3)</f>
+        <f ca="1">INDEX(F4:F203,F3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2" t="e">
-        <f ca="1">INDEX(G4:G63,G3)</f>
+        <f ca="1">INDEX(G4:G203,G3)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H2" t="e">
-        <f ca="1">INDEX(H4:H63,H3)</f>
+        <f ca="1">INDEX(H4:H203,H3)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3147,10 +3147,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(15)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((16)=(C3),C19,C19))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D19" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((16)=(D3),D19,D19))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E19" t="e">
         <f ca="1">IF((A1)=(2),1,IF((16)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E19),E19))</f>
         <v>#VALUE!</v>
@@ -3181,10 +3177,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(16)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((17)=(C3),C20,C20))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((17)=(D3),D20,D20))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E20" t="e">
         <f ca="1">IF((A1)=(2),1,IF((17)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E20),E20))</f>
         <v>#VALUE!</v>
@@ -3215,10 +3207,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(17)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((18)=(C3),C21,C21))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D21" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((18)=(D3),D21,D21))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E21" t="e">
         <f ca="1">IF((A1)=(2),1,IF((18)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E21),E21))</f>
         <v>#VALUE!</v>
@@ -3249,10 +3237,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(18)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((19)=(C3),C22,C22))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D22" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((19)=(D3),D22,D22))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E22" t="e">
         <f ca="1">IF((A1)=(2),1,IF((19)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E22),E22))</f>
         <v>#VALUE!</v>
@@ -3283,10 +3267,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(19)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((20)=(C3),C23,C23))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D23" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((20)=(D3),D23,D23))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E23" t="e">
         <f ca="1">IF((A1)=(2),1,IF((20)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E23),E23))</f>
         <v>#VALUE!</v>
@@ -3317,10 +3297,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(20)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((21)=(C3),C24,C24))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D24" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((21)=(D3),D24,D24))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E24" t="e">
         <f ca="1">IF((A1)=(2),1,IF((21)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E24),E24))</f>
         <v>#VALUE!</v>
@@ -3351,10 +3327,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(21)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((22)=(C3),C25,C25))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D25" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((22)=(D3),D25,D25))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E25" t="e">
         <f ca="1">IF((A1)=(2),1,IF((22)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E25),E25))</f>
         <v>#VALUE!</v>
@@ -3385,10 +3357,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(22)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((23)=(C3),C26,C26))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D26" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((23)=(D3),D26,D26))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E26" t="e">
         <f ca="1">IF((A1)=(2),1,IF((23)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E26),E26))</f>
         <v>#VALUE!</v>
@@ -3419,10 +3387,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(23)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((24)=(C3),C27,C27))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D27" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((24)=(D3),D27,D27))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E27" t="e">
         <f ca="1">IF((A1)=(2),1,IF((24)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E27),E27))</f>
         <v>#VALUE!</v>
@@ -3453,10 +3417,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(24)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((25)=(C3),C28,C28))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D28" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((25)=(D3),D28,D28))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E28" t="e">
         <f ca="1">IF((A1)=(2),1,IF((25)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E28),E28))</f>
         <v>#VALUE!</v>
@@ -3487,10 +3447,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(25)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((26)=(C3),C29,C29))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D29" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((26)=(D3),D29,D29))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E29" t="e">
         <f ca="1">IF((A1)=(2),1,IF((26)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E29),E29))</f>
         <v>#VALUE!</v>
@@ -3521,10 +3477,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(26)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((27)=(C3),C30,C30))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D30" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((27)=(D3),D30,D30))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E30" t="e">
         <f ca="1">IF((A1)=(2),1,IF((27)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E30),E30))</f>
         <v>#VALUE!</v>
@@ -3555,10 +3507,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(27)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((28)=(C3),C31,C31))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D31" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((28)=(D3),D31,D31))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E31" t="e">
         <f ca="1">IF((A1)=(2),1,IF((28)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E31),E31))</f>
         <v>#VALUE!</v>
@@ -3589,10 +3537,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(28)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((29)=(C3),C32,C32))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D32" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((29)=(D3),D32,D32))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E32" t="e">
         <f ca="1">IF((A1)=(2),1,IF((29)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E32),E32))</f>
         <v>#VALUE!</v>
@@ -3623,10 +3567,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(29)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((30)=(C3),C33,C33))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D33" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((30)=(D3),D33,D33))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E33" t="e">
         <f ca="1">IF((A1)=(2),1,IF((30)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E33),E33))</f>
         <v>#VALUE!</v>
@@ -3657,10 +3597,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(30)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((31)=(C3),C34,C34))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D34" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((31)=(D3),D34,D34))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E34" t="e">
         <f ca="1">IF((A1)=(2),1,IF((31)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E34),E34))</f>
         <v>#VALUE!</v>
@@ -3691,10 +3627,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(31)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((32)=(C3),C35,C35))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((32)=(D3),D35,D35))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E35" t="e">
         <f ca="1">IF((A1)=(2),1,IF((32)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E35),E35))</f>
         <v>#VALUE!</v>
@@ -3725,10 +3657,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(32)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((33)=(C3),C36,C36))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D36" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((33)=(D3),D36,D36))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E36" t="e">
         <f ca="1">IF((A1)=(2),1,IF((33)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E36),E36))</f>
         <v>#VALUE!</v>
@@ -3759,10 +3687,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(33)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((34)=(C3),C37,C37))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D37" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((34)=(D3),D37,D37))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E37" t="e">
         <f ca="1">IF((A1)=(2),1,IF((34)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E37),E37))</f>
         <v>#VALUE!</v>
@@ -3793,10 +3717,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(34)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((35)=(C3),C38,C38))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D38" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((35)=(D3),D38,D38))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E38" t="e">
         <f ca="1">IF((A1)=(2),1,IF((35)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E38),E38))</f>
         <v>#VALUE!</v>
@@ -3827,10 +3747,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(35)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((36)=(C3),C39,C39))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D39" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((36)=(D3),D39,D39))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E39" t="e">
         <f ca="1">IF((A1)=(2),1,IF((36)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E39),E39))</f>
         <v>#VALUE!</v>
@@ -3861,10 +3777,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(36)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((37)=(C3),C40,C40))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D40" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((37)=(D3),D40,D40))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E40" t="e">
         <f ca="1">IF((A1)=(2),1,IF((37)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E40),E40))</f>
         <v>#VALUE!</v>
@@ -3895,10 +3807,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(37)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((38)=(C3),C41,C41))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D41" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((38)=(D3),D41,D41))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E41" t="e">
         <f ca="1">IF((A1)=(2),1,IF((38)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E41),E41))</f>
         <v>#VALUE!</v>
@@ -3929,10 +3837,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(38)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((39)=(C3),C42,C42))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D42" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((39)=(D3),D42,D42))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E42" t="e">
         <f ca="1">IF((A1)=(2),1,IF((39)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E42),E42))</f>
         <v>#VALUE!</v>
@@ -3963,10 +3867,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(39)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((40)=(C3),C43,C43))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D43" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((40)=(D3),D43,D43))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E43" t="e">
         <f ca="1">IF((A1)=(2),1,IF((40)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E43),E43))</f>
         <v>#VALUE!</v>
@@ -3997,10 +3897,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(40)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((41)=(C3),C44,C44))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D44" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((41)=(D3),D44,D44))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E44" t="e">
         <f ca="1">IF((A1)=(2),1,IF((41)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E44),E44))</f>
         <v>#VALUE!</v>
@@ -4031,10 +3927,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(41)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((42)=(C3),C45,C45))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D45" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((42)=(D3),D45,D45))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E45" t="e">
         <f ca="1">IF((A1)=(2),1,IF((42)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E45),E45))</f>
         <v>#VALUE!</v>
@@ -4065,10 +3957,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(42)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((43)=(C3),C46,C46))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D46" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((43)=(D3),D46,D46))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E46" t="e">
         <f ca="1">IF((A1)=(2),1,IF((43)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E46),E46))</f>
         <v>#VALUE!</v>
@@ -4099,10 +3987,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(43)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((44)=(C3),C47,C47))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D47" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((44)=(D3),D47,D47))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E47" t="e">
         <f ca="1">IF((A1)=(2),1,IF((44)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E47),E47))</f>
         <v>#VALUE!</v>
@@ -4133,10 +4017,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(44)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((45)=(C3),C48,C48))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D48" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((45)=(D3),D48,D48))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E48" t="e">
         <f ca="1">IF((A1)=(2),1,IF((45)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E48),E48))</f>
         <v>#VALUE!</v>
@@ -4167,10 +4047,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(45)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((46)=(C3),C49,C49))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D49" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((46)=(D3),D49,D49))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E49" t="e">
         <f ca="1">IF((A1)=(2),1,IF((46)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E49),E49))</f>
         <v>#VALUE!</v>
@@ -4201,10 +4077,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(46)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((47)=(C3),C50,C50))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D50" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((47)=(D3),D50,D50))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E50" t="e">
         <f ca="1">IF((A1)=(2),1,IF((47)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E50),E50))</f>
         <v>#VALUE!</v>
@@ -4235,10 +4107,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(47)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((48)=(C3),C51,C51))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((48)=(D3),D51,D51))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E51" t="e">
         <f ca="1">IF((A1)=(2),1,IF((48)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E51),E51))</f>
         <v>#VALUE!</v>
@@ -4269,10 +4137,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(48)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((49)=(C3),C52,C52))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((49)=(D3),D52,D52))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E52" t="e">
         <f ca="1">IF((A1)=(2),1,IF((49)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E52),E52))</f>
         <v>#VALUE!</v>
@@ -4303,10 +4167,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(49)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((50)=(C3),C53,C53))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D53" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((50)=(D3),D53,D53))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E53" t="e">
         <f ca="1">IF((A1)=(2),1,IF((50)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E53),E53))</f>
         <v>#VALUE!</v>
@@ -4337,10 +4197,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(50)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((51)=(C3),C54,C54))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D54" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((51)=(D3),D54,D54))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E54" t="e">
         <f ca="1">IF((A1)=(2),1,IF((51)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E54),E54))</f>
         <v>#VALUE!</v>
@@ -4371,10 +4227,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(51)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((52)=(C3),C55,C55))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D55" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((52)=(D3),D55,D55))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E55" t="e">
         <f ca="1">IF((A1)=(2),1,IF((52)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E55),E55))</f>
         <v>#VALUE!</v>
@@ -4405,10 +4257,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(52)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((53)=(C3),C56,C56))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D56" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((53)=(D3),D56,D56))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E56" t="e">
         <f ca="1">IF((A1)=(2),1,IF((53)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E56),E56))</f>
         <v>#VALUE!</v>
@@ -4439,10 +4287,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(53)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((54)=(C3),C57,C57))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D57" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((54)=(D3),D57,D57))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E57" t="e">
         <f ca="1">IF((A1)=(2),1,IF((54)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E57),E57))</f>
         <v>#VALUE!</v>
@@ -4473,10 +4317,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(54)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((55)=(C3),C58,C58))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D58" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((55)=(D3),D58,D58))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E58" t="e">
         <f ca="1">IF((A1)=(2),1,IF((55)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E58),E58))</f>
         <v>#VALUE!</v>
@@ -4507,10 +4347,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(55)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((56)=(C3),C59,C59))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D59" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((56)=(D3),D59,D59))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E59" t="e">
         <f ca="1">IF((A1)=(2),1,IF((56)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E59),E59))</f>
         <v>#VALUE!</v>
@@ -4541,10 +4377,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(56)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((57)=(C3),C60,C60))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D60" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((57)=(D3),D60,D60))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E60" t="e">
         <f ca="1">IF((A1)=(2),1,IF((57)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E60),E60))</f>
         <v>#VALUE!</v>
@@ -4575,10 +4407,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(57)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((58)=(C3),C61,C61))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D61" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((58)=(D3),D61,D61))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E61" t="e">
         <f ca="1">IF((A1)=(2),1,IF((58)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E61),E61))</f>
         <v>#VALUE!</v>
@@ -4609,10 +4437,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(58)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((59)=(C3),C62,C62))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D62" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((59)=(D3),D62,D62))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E62" t="e">
         <f ca="1">IF((A1)=(2),1,IF((59)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E62),E62))</f>
         <v>#VALUE!</v>
@@ -4643,10 +4467,6 @@
         <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(59)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((60)=(C3),C63,C63))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D63" t="e">
-        <f ca="1">IF((A1)=(2),1,IF((60)=(D3),D63,D63))</f>
-        <v>#VALUE!</v>
-      </c>
       <c r="E63" t="e">
         <f ca="1">IF((A1)=(2),1,IF((60)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E63),E63))</f>
         <v>#VALUE!</v>
@@ -4661,6 +4481,4206 @@
       </c>
       <c r="H63" t="e">
         <f ca="1">IF((A1)=(2),1,IF((60)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H63),H63))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A64)+(2)),(A64)+(2)))),A64))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B64)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B64),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B64),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B64),B64))))))),B64))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(60)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((61)=(C3),C64,C64))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E64),E64))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F64),F64))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G64),G64))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H64" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((61)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H64),H64))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A65)+(2)),(A65)+(2)))),A65))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B65)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B65),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B65),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B65),B65))))))),B65))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(61)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((62)=(C3),C65,C65))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E65),E65))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F65),F65))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G65),G65))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H65" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((62)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H65),H65))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A66)+(2)),(A66)+(2)))),A66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B66)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B66),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B66),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B66),B66))))))),B66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(62)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((63)=(C3),C66,C66))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E66),E66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F66),F66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G66),G66))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H66" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((63)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H66),H66))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A67)+(2)),(A67)+(2)))),A67))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B67)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B67),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B67),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B67),B67))))))),B67))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(63)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((64)=(C3),C67,C67))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E67),E67))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F67),F67))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G67),G67))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H67" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((64)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H67),H67))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A68)+(2)),(A68)+(2)))),A68))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B68)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B68),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B68),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B68),B68))))))),B68))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(64)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((65)=(C3),C68,C68))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E68),E68))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F68),F68))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G68),G68))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H68" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((65)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H68),H68))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A69)+(2)),(A69)+(2)))),A69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B69)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B69),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B69),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B69),B69))))))),B69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(65)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((66)=(C3),C69,C69))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E69),E69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F69),F69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G69),G69))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H69" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((66)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H69),H69))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A70)+(2)),(A70)+(2)))),A70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B70)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B70),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B70),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B70),B70))))))),B70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(66)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((67)=(C3),C70,C70))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E70),E70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F70),F70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G70),G70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H70" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((67)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H70),H70))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A71)+(2)),(A71)+(2)))),A71))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B71)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B71),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B71),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B71),B71))))))),B71))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(67)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((68)=(C3),C71,C71))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E71),E71))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F71),F71))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G71),G71))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H71" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((68)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H71),H71))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A72)+(2)),(A72)+(2)))),A72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B72)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B72),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B72),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B72),B72))))))),B72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(68)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((69)=(C3),C72,C72))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E72),E72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F72),F72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G72),G72))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H72" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((69)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H72),H72))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A73)+(2)),(A73)+(2)))),A73))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B73)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B73),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B73),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B73),B73))))))),B73))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(69)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((70)=(C3),C73,C73))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E73),E73))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F73),F73))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G73),G73))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H73" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((70)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H73),H73))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A74)+(2)),(A74)+(2)))),A74))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B74)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B74),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B74),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B74),B74))))))),B74))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(70)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((71)=(C3),C74,C74))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E74),E74))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F74),F74))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G74),G74))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H74" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((71)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H74),H74))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A75)+(2)),(A75)+(2)))),A75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B75)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B75),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B75),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B75),B75))))))),B75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(71)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((72)=(C3),C75,C75))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E75),E75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F75),F75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G75),G75))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H75" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((72)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H75),H75))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A76)+(2)),(A76)+(2)))),A76))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B76)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B76),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B76),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B76),B76))))))),B76))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(72)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((73)=(C3),C76,C76))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E76),E76))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F76),F76))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G76),G76))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H76" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((73)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H76),H76))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A77)+(2)),(A77)+(2)))),A77))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B77)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B77),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B77),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B77),B77))))))),B77))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(73)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((74)=(C3),C77,C77))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E77),E77))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F77),F77))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G77),G77))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H77" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((74)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H77),H77))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A78)+(2)),(A78)+(2)))),A78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B78)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B78),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B78),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B78),B78))))))),B78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(74)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((75)=(C3),C78,C78))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E78),E78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F78),F78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G78),G78))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H78" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((75)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H78),H78))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A79)+(2)),(A79)+(2)))),A79))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B79)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B79),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B79),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B79),B79))))))),B79))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(75)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((76)=(C3),C79,C79))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E79),E79))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F79),F79))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G79),G79))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H79" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((76)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H79),H79))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A80)+(2)),(A80)+(2)))),A80))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B80)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B80),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B80),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B80),B80))))))),B80))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(76)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((77)=(C3),C80,C80))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E80),E80))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F80),F80))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G80),G80))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H80" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((77)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H80),H80))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A81)+(2)),(A81)+(2)))),A81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B81)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B81),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B81),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B81),B81))))))),B81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(77)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((78)=(C3),C81,C81))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E81),E81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F81),F81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G81),G81))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H81" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((78)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H81),H81))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A82)+(2)),(A82)+(2)))),A82))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B82)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B82),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B82),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B82),B82))))))),B82))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(78)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((79)=(C3),C82,C82))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E82),E82))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F82),F82))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G82),G82))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H82" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((79)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H82),H82))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A83)+(2)),(A83)+(2)))),A83))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B83)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B83),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B83),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B83),B83))))))),B83))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(79)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((80)=(C3),C83,C83))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E83),E83))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F83),F83))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G83),G83))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H83" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((80)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H83),H83))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A84)+(2)),(A84)+(2)))),A84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B84)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B84),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B84),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B84),B84))))))),B84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(80)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((81)=(C3),C84,C84))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E84),E84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F84),F84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G84),G84))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H84" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((81)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H84),H84))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A85)+(2)),(A85)+(2)))),A85))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B85)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B85),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B85),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B85),B85))))))),B85))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(81)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((82)=(C3),C85,C85))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E85),E85))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F85),F85))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G85),G85))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H85" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((82)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H85),H85))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A86)+(2)),(A86)+(2)))),A86))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B86)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B86),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B86),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B86),B86))))))),B86))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(82)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((83)=(C3),C86,C86))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E86),E86))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F86),F86))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G86),G86))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H86" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((83)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H86),H86))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A87)+(2)),(A87)+(2)))),A87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B87)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B87),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B87),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B87),B87))))))),B87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(83)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((84)=(C3),C87,C87))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E87),E87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F87),F87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G87),G87))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H87" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((84)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H87),H87))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A88)+(2)),(A88)+(2)))),A88))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B88)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B88),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B88),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B88),B88))))))),B88))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(84)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((85)=(C3),C88,C88))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E88),E88))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F88),F88))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G88),G88))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H88" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((85)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H88),H88))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A89)+(2)),(A89)+(2)))),A89))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B89)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B89),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B89),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B89),B89))))))),B89))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(85)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((86)=(C3),C89,C89))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E89),E89))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F89),F89))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G89),G89))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H89" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((86)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H89),H89))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A90)+(2)),(A90)+(2)))),A90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B90)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B90),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B90),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B90),B90))))))),B90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(86)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((87)=(C3),C90,C90))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E90),E90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F90),F90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G90),G90))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H90" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((87)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H90),H90))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A91)+(2)),(A91)+(2)))),A91))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B91)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B91),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B91),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B91),B91))))))),B91))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(87)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((88)=(C3),C91,C91))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E91),E91))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F91),F91))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G91),G91))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H91" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((88)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H91),H91))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A92)+(2)),(A92)+(2)))),A92))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B92)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B92),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B92),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B92),B92))))))),B92))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(88)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((89)=(C3),C92,C92))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E92),E92))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F92),F92))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G92),G92))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H92" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((89)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H92),H92))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A93)+(2)),(A93)+(2)))),A93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B93)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B93),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B93),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B93),B93))))))),B93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(89)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((90)=(C3),C93,C93))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E93),E93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F93),F93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G93),G93))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H93" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((90)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H93),H93))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A94)+(2)),(A94)+(2)))),A94))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B94)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B94),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B94),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B94),B94))))))),B94))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(90)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((91)=(C3),C94,C94))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E94),E94))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F94),F94))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G94),G94))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H94" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((91)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H94),H94))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A95)+(2)),(A95)+(2)))),A95))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B95)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B95),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B95),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B95),B95))))))),B95))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(91)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((92)=(C3),C95,C95))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E95),E95))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F95),F95))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G95),G95))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H95" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((92)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H95),H95))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A96)+(2)),(A96)+(2)))),A96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B96)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B96),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B96),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B96),B96))))))),B96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(92)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((93)=(C3),C96,C96))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E96),E96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F96),F96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G96),G96))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H96" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((93)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H96),H96))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A97)+(2)),(A97)+(2)))),A97))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B97)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B97),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B97),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B97),B97))))))),B97))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(93)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((94)=(C3),C97,C97))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E97),E97))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F97),F97))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G97),G97))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H97" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((94)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H97),H97))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A98)+(2)),(A98)+(2)))),A98))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B98)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B98),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B98),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B98),B98))))))),B98))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(94)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((95)=(C3),C98,C98))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E98),E98))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F98),F98))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G98),G98))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H98" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((95)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H98),H98))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A99)+(2)),(A99)+(2)))),A99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B99)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B99),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B99),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B99),B99))))))),B99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(95)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((96)=(C3),C99,C99))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E99),E99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F99),F99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G99),G99))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H99" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((96)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H99),H99))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A100)+(2)),(A100)+(2)))),A100))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B100)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B100),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B100),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B100),B100))))))),B100))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(96)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((97)=(C3),C100,C100))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E100),E100))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F100),F100))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G100),G100))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H100" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((97)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H100),H100))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A101)+(2)),(A101)+(2)))),A101))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B101)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B101),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B101),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B101),B101))))))),B101))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(97)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((98)=(C3),C101,C101))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E101),E101))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F101),F101))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G101),G101))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H101" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((98)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H101),H101))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A102)+(2)),(A102)+(2)))),A102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B102)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B102),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B102),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B102),B102))))))),B102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(98)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((99)=(C3),C102,C102))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E102),E102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F102),F102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G102),G102))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H102" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((99)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H102),H102))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A103)+(2)),(A103)+(2)))),A103))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B103)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B103),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B103),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B103),B103))))))),B103))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(99)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((100)=(C3),C103,C103))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E103),E103))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F103),F103))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G103),G103))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H103" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((100)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H103),H103))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A104)+(2)),(A104)+(2)))),A104))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B104)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B104),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B104),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B104),B104))))))),B104))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(100)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((101)=(C3),C104,C104))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E104),E104))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F104),F104))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G104),G104))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H104" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((101)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H104),H104))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A105)+(2)),(A105)+(2)))),A105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B105)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B105),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B105),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B105),B105))))))),B105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(101)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((102)=(C3),C105,C105))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E105),E105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F105),F105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G105),G105))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H105" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((102)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H105),H105))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A106)+(2)),(A106)+(2)))),A106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B106)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B106),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B106),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B106),B106))))))),B106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(102)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((103)=(C3),C106,C106))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E106),E106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F106),F106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G106),G106))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H106" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((103)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H106),H106))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A107)+(2)),(A107)+(2)))),A107))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B107)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B107),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B107),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B107),B107))))))),B107))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(103)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((104)=(C3),C107,C107))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E107),E107))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F107),F107))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G107),G107))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H107" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((104)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H107),H107))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A108)+(2)),(A108)+(2)))),A108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B108)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B108),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B108),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B108),B108))))))),B108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(104)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((105)=(C3),C108,C108))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E108),E108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F108),F108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G108),G108))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H108" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((105)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H108),H108))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A109)+(2)),(A109)+(2)))),A109))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B109)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B109),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B109),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B109),B109))))))),B109))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(105)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((106)=(C3),C109,C109))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E109),E109))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F109),F109))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G109),G109))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H109" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((106)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H109),H109))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A110)+(2)),(A110)+(2)))),A110))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B110)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B110),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B110),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B110),B110))))))),B110))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(106)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((107)=(C3),C110,C110))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E110),E110))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F110),F110))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G110),G110))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H110" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((107)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H110),H110))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A111)+(2)),(A111)+(2)))),A111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B111)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B111),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B111),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B111),B111))))))),B111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(107)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((108)=(C3),C111,C111))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E111),E111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F111),F111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G111),G111))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H111" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((108)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H111),H111))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A112)+(2)),(A112)+(2)))),A112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B112)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B112),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B112),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B112),B112))))))),B112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(108)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((109)=(C3),C112,C112))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E112),E112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F112),F112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G112),G112))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H112" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((109)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H112),H112))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A113)+(2)),(A113)+(2)))),A113))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B113)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B113),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B113),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B113),B113))))))),B113))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(109)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((110)=(C3),C113,C113))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E113),E113))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F113),F113))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G113),G113))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H113" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((110)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H113),H113))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A114)+(2)),(A114)+(2)))),A114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B114)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B114),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B114),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B114),B114))))))),B114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(110)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((111)=(C3),C114,C114))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E114),E114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F114),F114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G114),G114))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H114" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((111)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H114),H114))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A115)+(2)),(A115)+(2)))),A115))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B115)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B115),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B115),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B115),B115))))))),B115))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(111)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((112)=(C3),C115,C115))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E115),E115))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F115),F115))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G115),G115))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H115" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((112)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H115),H115))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A116)+(2)),(A116)+(2)))),A116))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B116)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B116),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B116),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B116),B116))))))),B116))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(112)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((113)=(C3),C116,C116))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E116),E116))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F116),F116))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G116),G116))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H116" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((113)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H116),H116))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A117)+(2)),(A117)+(2)))),A117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B117)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B117),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B117),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B117),B117))))))),B117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(113)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((114)=(C3),C117,C117))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E117),E117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F117),F117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G117),G117))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H117" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((114)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H117),H117))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A118)+(2)),(A118)+(2)))),A118))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B118)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B118),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B118),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B118),B118))))))),B118))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(114)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((115)=(C3),C118,C118))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E118),E118))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F118),F118))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G118),G118))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H118" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((115)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H118),H118))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A119)+(2)),(A119)+(2)))),A119))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B119)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B119),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B119),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B119),B119))))))),B119))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(115)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((116)=(C3),C119,C119))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E119),E119))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F119),F119))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G119),G119))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H119" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((116)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H119),H119))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A120)+(2)),(A120)+(2)))),A120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B120)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B120),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B120),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B120),B120))))))),B120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(116)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((117)=(C3),C120,C120))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E120),E120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F120),F120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G120),G120))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H120" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((117)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H120),H120))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A121)+(2)),(A121)+(2)))),A121))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B121)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B121),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B121),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B121),B121))))))),B121))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(117)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((118)=(C3),C121,C121))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E121),E121))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F121),F121))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G121),G121))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H121" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((118)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H121),H121))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A122)+(2)),(A122)+(2)))),A122))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B122)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B122),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B122),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B122),B122))))))),B122))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(118)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((119)=(C3),C122,C122))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E122),E122))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F122),F122))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G122),G122))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H122" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((119)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H122),H122))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A123)+(2)),(A123)+(2)))),A123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B123)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B123),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B123),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B123),B123))))))),B123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(119)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((120)=(C3),C123,C123))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E123),E123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F123),F123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G123),G123))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H123" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((120)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H123),H123))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A124)+(2)),(A124)+(2)))),A124))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B124)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B124),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B124),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B124),B124))))))),B124))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(120)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((121)=(C3),C124,C124))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E124),E124))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F124),F124))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G124),G124))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H124" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((121)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H124),H124))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A125)+(2)),(A125)+(2)))),A125))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B125)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B125),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B125),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B125),B125))))))),B125))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(121)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((122)=(C3),C125,C125))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E125),E125))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F125),F125))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G125),G125))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H125" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((122)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H125),H125))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A126)+(2)),(A126)+(2)))),A126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B126)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B126),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B126),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B126),B126))))))),B126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(122)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((123)=(C3),C126,C126))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E126),E126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F126),F126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G126),G126))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H126" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((123)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H126),H126))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A127)+(2)),(A127)+(2)))),A127))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B127)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B127),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B127),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B127),B127))))))),B127))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(123)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((124)=(C3),C127,C127))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E127),E127))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F127),F127))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G127),G127))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H127" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((124)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H127),H127))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A128)+(2)),(A128)+(2)))),A128))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B128)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B128),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B128),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B128),B128))))))),B128))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(124)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((125)=(C3),C128,C128))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E128),E128))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F128),F128))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G128),G128))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H128" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((125)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H128),H128))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A129)+(2)),(A129)+(2)))),A129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B129)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B129),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B129),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B129),B129))))))),B129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(125)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((126)=(C3),C129,C129))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E129),E129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F129),F129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G129),G129))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H129" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((126)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H129),H129))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A130)+(2)),(A130)+(2)))),A130))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B130)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B130),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B130),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B130),B130))))))),B130))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(126)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((127)=(C3),C130,C130))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E130),E130))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F130),F130))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G130),G130))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H130" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((127)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H130),H130))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A131)+(2)),(A131)+(2)))),A131))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B131)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B131),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B131),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B131),B131))))))),B131))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(127)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((128)=(C3),C131,C131))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E131),E131))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F131),F131))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G131),G131))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H131" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((128)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H131),H131))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A132)+(2)),(A132)+(2)))),A132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B132)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B132),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B132),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B132),B132))))))),B132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(128)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((129)=(C3),C132,C132))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E132),E132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F132),F132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G132),G132))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H132" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((129)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H132),H132))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A133)+(2)),(A133)+(2)))),A133))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B133)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B133),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B133),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B133),B133))))))),B133))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(129)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((130)=(C3),C133,C133))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E133),E133))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F133),F133))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G133),G133))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H133" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((130)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H133),H133))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A134)+(2)),(A134)+(2)))),A134))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B134)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B134),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B134),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B134),B134))))))),B134))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(130)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((131)=(C3),C134,C134))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E134),E134))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F134),F134))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G134),G134))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H134" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((131)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H134),H134))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A135)+(2)),(A135)+(2)))),A135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B135)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B135),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B135),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B135),B135))))))),B135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(131)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((132)=(C3),C135,C135))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E135),E135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F135),F135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G135),G135))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H135" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((132)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H135),H135))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A136)+(2)),(A136)+(2)))),A136))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B136)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B136),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B136),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B136),B136))))))),B136))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(132)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((133)=(C3),C136,C136))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E136),E136))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F136),F136))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G136),G136))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H136" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((133)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H136),H136))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A137)+(2)),(A137)+(2)))),A137))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B137)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B137),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B137),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B137),B137))))))),B137))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(133)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((134)=(C3),C137,C137))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E137),E137))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F137),F137))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G137),G137))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H137" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((134)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H137),H137))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A138)+(2)),(A138)+(2)))),A138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B138)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B138),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B138),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B138),B138))))))),B138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(134)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((135)=(C3),C138,C138))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E138),E138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F138),F138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G138),G138))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H138" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((135)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H138),H138))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A139)+(2)),(A139)+(2)))),A139))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B139)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B139),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B139),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B139),B139))))))),B139))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(135)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((136)=(C3),C139,C139))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E139),E139))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F139),F139))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G139),G139))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H139" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((136)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H139),H139))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A140)+(2)),(A140)+(2)))),A140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B140)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B140),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B140),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B140),B140))))))),B140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(136)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((137)=(C3),C140,C140))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E140),E140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F140),F140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G140),G140))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H140" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((137)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H140),H140))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A141)+(2)),(A141)+(2)))),A141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B141)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B141),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B141),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B141),B141))))))),B141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(137)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((138)=(C3),C141,C141))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E141),E141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F141),F141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G141),G141))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H141" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((138)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H141),H141))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A142)+(2)),(A142)+(2)))),A142))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B142)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B142),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B142),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B142),B142))))))),B142))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(138)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((139)=(C3),C142,C142))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E142),E142))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F142),F142))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G142),G142))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H142" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((139)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H142),H142))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A143)+(2)),(A143)+(2)))),A143))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B143)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B143),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B143),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B143),B143))))))),B143))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(139)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((140)=(C3),C143,C143))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E143),E143))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F143),F143))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G143),G143))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H143" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((140)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H143),H143))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A144)+(2)),(A144)+(2)))),A144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B144)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B144),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B144),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B144),B144))))))),B144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(140)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((141)=(C3),C144,C144))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E144),E144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F144),F144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G144),G144))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H144" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((141)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H144),H144))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A145)+(2)),(A145)+(2)))),A145))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B145)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B145),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B145),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B145),B145))))))),B145))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(141)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((142)=(C3),C145,C145))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E145),E145))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F145),F145))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G145),G145))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H145" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((142)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H145),H145))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A146)+(2)),(A146)+(2)))),A146))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B146)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B146),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B146),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B146),B146))))))),B146))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(142)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((143)=(C3),C146,C146))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E146),E146))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F146),F146))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G146),G146))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H146" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((143)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H146),H146))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A147)+(2)),(A147)+(2)))),A147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B147)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B147),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B147),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B147),B147))))))),B147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(143)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((144)=(C3),C147,C147))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E147),E147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F147),F147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G147),G147))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H147" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((144)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H147),H147))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A148)+(2)),(A148)+(2)))),A148))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B148)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B148),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B148),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B148),B148))))))),B148))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(144)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((145)=(C3),C148,C148))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E148),E148))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F148),F148))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G148),G148))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H148" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((145)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H148),H148))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A149)+(2)),(A149)+(2)))),A149))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B149)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B149),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B149),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B149),B149))))))),B149))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(145)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((146)=(C3),C149,C149))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E149),E149))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F149),F149))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G149),G149))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H149" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((146)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H149),H149))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A150)+(2)),(A150)+(2)))),A150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B150)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B150),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B150),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B150),B150))))))),B150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(146)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((147)=(C3),C150,C150))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E150),E150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F150),F150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G150),G150))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H150" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((147)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H150),H150))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A151)+(2)),(A151)+(2)))),A151))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B151)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B151),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B151),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B151),B151))))))),B151))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(147)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((148)=(C3),C151,C151))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E151),E151))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F151),F151))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G151),G151))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H151" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((148)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H151),H151))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A152)+(2)),(A152)+(2)))),A152))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B152)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B152),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B152),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B152),B152))))))),B152))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(148)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((149)=(C3),C152,C152))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E152),E152))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F152),F152))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G152),G152))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H152" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((149)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H152),H152))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A153)+(2)),(A153)+(2)))),A153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B153)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B153),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B153),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B153),B153))))))),B153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(149)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((150)=(C3),C153,C153))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E153),E153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F153),F153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G153),G153))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H153" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((150)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H153),H153))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A154)+(2)),(A154)+(2)))),A154))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B154)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B154),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B154),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B154),B154))))))),B154))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(150)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((151)=(C3),C154,C154))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E154),E154))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F154),F154))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G154),G154))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H154" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((151)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H154),H154))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A155)+(2)),(A155)+(2)))),A155))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B155)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B155),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B155),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B155),B155))))))),B155))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(151)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((152)=(C3),C155,C155))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E155),E155))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F155),F155))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G155),G155))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H155" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((152)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H155),H155))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A156)+(2)),(A156)+(2)))),A156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B156)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B156),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B156),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B156),B156))))))),B156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(152)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((153)=(C3),C156,C156))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E156),E156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F156),F156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G156),G156))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H156" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((153)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H156),H156))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A157)+(2)),(A157)+(2)))),A157))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B157)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B157),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B157),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B157),B157))))))),B157))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(153)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((154)=(C3),C157,C157))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E157),E157))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F157),F157))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G157),G157))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H157" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((154)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H157),H157))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A158)+(2)),(A158)+(2)))),A158))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B158)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B158),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B158),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B158),B158))))))),B158))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(154)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((155)=(C3),C158,C158))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E158),E158))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F158),F158))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G158),G158))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H158" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((155)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H158),H158))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A159)+(2)),(A159)+(2)))),A159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B159)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B159),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B159),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B159),B159))))))),B159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(155)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((156)=(C3),C159,C159))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E159),E159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F159),F159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G159),G159))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H159" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((156)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H159),H159))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A160)+(2)),(A160)+(2)))),A160))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B160)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B160),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B160),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B160),B160))))))),B160))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(156)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((157)=(C3),C160,C160))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E160),E160))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F160),F160))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G160),G160))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H160" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((157)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H160),H160))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A161)+(2)),(A161)+(2)))),A161))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B161)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B161),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B161),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B161),B161))))))),B161))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(157)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((158)=(C3),C161,C161))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E161),E161))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F161),F161))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G161),G161))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H161" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((158)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H161),H161))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A162)+(2)),(A162)+(2)))),A162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B162)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B162),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B162),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B162),B162))))))),B162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(158)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((159)=(C3),C162,C162))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E162),E162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F162),F162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G162),G162))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H162" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((159)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H162),H162))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A163)+(2)),(A163)+(2)))),A163))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B163)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B163),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B163),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B163),B163))))))),B163))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(159)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((160)=(C3),C163,C163))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E163),E163))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F163),F163))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G163),G163))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H163" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((160)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H163),H163))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A164)+(2)),(A164)+(2)))),A164))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B164)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B164),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B164),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B164),B164))))))),B164))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(160)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((161)=(C3),C164,C164))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E164),E164))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F164),F164))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G164),G164))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H164" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((161)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H164),H164))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A165)+(2)),(A165)+(2)))),A165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B165)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B165),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B165),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B165),B165))))))),B165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(161)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((162)=(C3),C165,C165))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E165),E165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F165),F165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G165),G165))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H165" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((162)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H165),H165))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A166)+(2)),(A166)+(2)))),A166))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B166)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B166),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B166),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B166),B166))))))),B166))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(162)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((163)=(C3),C166,C166))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E166),E166))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F166),F166))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G166),G166))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H166" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((163)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H166),H166))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A167)+(2)),(A167)+(2)))),A167))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B167)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B167),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B167),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B167),B167))))))),B167))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(163)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((164)=(C3),C167,C167))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E167),E167))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F167),F167))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G167),G167))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H167" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((164)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H167),H167))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A168)+(2)),(A168)+(2)))),A168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B168)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B168),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B168),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B168),B168))))))),B168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(164)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((165)=(C3),C168,C168))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E168),E168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F168),F168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G168),G168))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H168" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((165)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H168),H168))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A169)+(2)),(A169)+(2)))),A169))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B169)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B169),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B169),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B169),B169))))))),B169))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(165)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((166)=(C3),C169,C169))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E169),E169))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F169),F169))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G169),G169))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H169" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((166)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H169),H169))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A170)+(2)),(A170)+(2)))),A170))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B170)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B170),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B170),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B170),B170))))))),B170))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(166)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((167)=(C3),C170,C170))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E170),E170))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F170),F170))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G170),G170))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H170" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((167)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H170),H170))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A171)+(2)),(A171)+(2)))),A171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B171)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B171),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B171),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B171),B171))))))),B171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(167)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((168)=(C3),C171,C171))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E171),E171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F171),F171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G171),G171))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H171" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((168)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H171),H171))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A172)+(2)),(A172)+(2)))),A172))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B172)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B172),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B172),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B172),B172))))))),B172))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(168)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((169)=(C3),C172,C172))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E172),E172))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F172),F172))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G172),G172))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H172" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((169)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H172),H172))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A173)+(2)),(A173)+(2)))),A173))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B173)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B173),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B173),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B173),B173))))))),B173))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(169)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((170)=(C3),C173,C173))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E173),E173))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F173),F173))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G173),G173))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H173" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((170)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H173),H173))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A174)+(2)),(A174)+(2)))),A174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B174)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B174),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B174),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B174),B174))))))),B174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(170)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((171)=(C3),C174,C174))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E174),E174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F174),F174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G174),G174))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H174" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((171)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H174),H174))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A175)+(2)),(A175)+(2)))),A175))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B175)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B175),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B175),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B175),B175))))))),B175))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(171)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((172)=(C3),C175,C175))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E175),E175))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F175),F175))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G175),G175))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H175" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((172)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H175),H175))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A176)+(2)),(A176)+(2)))),A176))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B176)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B176),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B176),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B176),B176))))))),B176))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(172)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((173)=(C3),C176,C176))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E176),E176))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F176),F176))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G176),G176))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H176" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((173)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H176),H176))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A177)+(2)),(A177)+(2)))),A177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B177)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B177),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B177),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B177),B177))))))),B177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(173)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((174)=(C3),C177,C177))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E177),E177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F177),F177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G177),G177))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H177" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((174)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H177),H177))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A178)+(2)),(A178)+(2)))),A178))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B178)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B178),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B178),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B178),B178))))))),B178))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(174)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((175)=(C3),C178,C178))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E178),E178))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F178),F178))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G178),G178))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H178" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((175)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H178),H178))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A179)+(2)),(A179)+(2)))),A179))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B179)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B179),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B179),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B179),B179))))))),B179))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(175)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((176)=(C3),C179,C179))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E179),E179))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F179),F179))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G179),G179))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H179" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((176)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H179),H179))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A180)+(2)),(A180)+(2)))),A180))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B180)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B180),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B180),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B180),B180))))))),B180))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(176)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((177)=(C3),C180,C180))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E180),E180))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F180),F180))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G180),G180))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H180" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((177)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H180),H180))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A181)+(2)),(A181)+(2)))),A181))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B181)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B181),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B181),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B181),B181))))))),B181))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(177)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((178)=(C3),C181,C181))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E181),E181))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F181),F181))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G181),G181))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H181" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((178)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H181),H181))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A182)+(2)),(A182)+(2)))),A182))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B182)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B182),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B182),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B182),B182))))))),B182))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(178)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((179)=(C3),C182,C182))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E182),E182))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F182),F182))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G182),G182))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H182" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((179)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H182),H182))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A183)+(2)),(A183)+(2)))),A183))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B183)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B183),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B183),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B183),B183))))))),B183))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(179)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((180)=(C3),C183,C183))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E183),E183))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F183),F183))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G183),G183))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H183" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((180)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H183),H183))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A184)+(2)),(A184)+(2)))),A184))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B184)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B184),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B184),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B184),B184))))))),B184))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(180)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((181)=(C3),C184,C184))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E184),E184))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F184),F184))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G184),G184))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H184" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((181)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H184),H184))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A185)+(2)),(A185)+(2)))),A185))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B185)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B185),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B185),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B185),B185))))))),B185))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(181)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((182)=(C3),C185,C185))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E185),E185))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F185),F185))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G185),G185))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H185" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((182)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H185),H185))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A186)+(2)),(A186)+(2)))),A186))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B186)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B186),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B186),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B186),B186))))))),B186))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(182)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((183)=(C3),C186,C186))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E186),E186))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F186),F186))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G186),G186))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H186" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((183)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H186),H186))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A187)+(2)),(A187)+(2)))),A187))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B187)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B187),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B187),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B187),B187))))))),B187))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(183)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((184)=(C3),C187,C187))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E187),E187))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F187),F187))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G187),G187))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H187" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((184)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H187),H187))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A188)+(2)),(A188)+(2)))),A188))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B188)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B188),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B188),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B188),B188))))))),B188))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(184)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((185)=(C3),C188,C188))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E188),E188))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F188),F188))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G188),G188))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H188" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((185)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H188),H188))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A189)+(2)),(A189)+(2)))),A189))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B189)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B189),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B189),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B189),B189))))))),B189))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(185)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((186)=(C3),C189,C189))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E189),E189))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F189),F189))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G189),G189))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H189" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((186)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H189),H189))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A190)+(2)),(A190)+(2)))),A190))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B190)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B190),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B190),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B190),B190))))))),B190))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(186)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((187)=(C3),C190,C190))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E190),E190))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F190),F190))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G190),G190))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H190" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((187)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H190),H190))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A191)+(2)),(A191)+(2)))),A191))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B191)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B191),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B191),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B191),B191))))))),B191))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(187)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((188)=(C3),C191,C191))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E191),E191))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F191),F191))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G191),G191))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H191" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((188)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H191),H191))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A192)+(2)),(A192)+(2)))),A192))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B192)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B192),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B192),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B192),B192))))))),B192))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(188)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((189)=(C3),C192,C192))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E192),E192))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F192),F192))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G192),G192))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H192" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((189)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H192),H192))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A193)+(2)),(A193)+(2)))),A193))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B193)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B193),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B193),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B193),B193))))))),B193))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(189)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((190)=(C3),C193,C193))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E193),E193))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F193),F193))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G193),G193))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H193" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((190)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H193),H193))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A194)+(2)),(A194)+(2)))),A194))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B194)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B194),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B194),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B194),B194))))))),B194))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(190)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((191)=(C3),C194,C194))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E194),E194))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F194),F194))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G194),G194))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H194" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((191)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H194),H194))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A195)+(2)),(A195)+(2)))),A195))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B195)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B195),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B195),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B195),B195))))))),B195))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(191)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((192)=(C3),C195,C195))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E195),E195))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F195),F195))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G195),G195))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H195" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((192)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H195),H195))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A196)+(2)),(A196)+(2)))),A196))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B196)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B196),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B196),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B196),B196))))))),B196))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(192)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((193)=(C3),C196,C196))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E196),E196))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F196),F196))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G196),G196))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H196" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((193)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H196),H196))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A197)+(2)),(A197)+(2)))),A197))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B197)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B197),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B197),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B197),B197))))))),B197))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(193)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((194)=(C3),C197,C197))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E197),E197))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F197),F197))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G197),G197))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H197" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((194)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H197),H197))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A198)+(2)),(A198)+(2)))),A198))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B198)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B198),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B198),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B198),B198))))))),B198))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(194)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((195)=(C3),C198,C198))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E198),E198))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F198),F198))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G198),G198))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H198" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((195)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H198),H198))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A199)+(2)),(A199)+(2)))),A199))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B199)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B199),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B199),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B199),B199))))))),B199))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(195)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((196)=(C3),C199,C199))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E199),E199))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F199),F199))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G199),G199))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H199" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((196)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H199),H199))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A200)+(2)),(A200)+(2)))),A200))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B200)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B200),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B200),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B200),B200))))))),B200))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(196)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((197)=(C3),C200,C200))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E200),E200))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F200),F200))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G200),G200))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H200" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((197)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H200),H200))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A201)+(2)),(A201)+(2)))),A201))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B201)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B201),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B201),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B201),B201))))))),B201))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(197)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((198)=(C3),C201,C201))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E201),E201))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F201),F201))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G201),G201))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H201" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((198)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H201),H201))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A202)+(2)),(A202)+(2)))),A202))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B202)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B202),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B202),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B202),B202))))))),B202))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(198)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((199)=(C3),C202,C202))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E202),E202))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F202),F202))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G202),G202))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H202" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((199)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H202),H202))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(A3),IF(("call")=(INDEX(B1:XFD1,(A2)+(0))),((B2)*(2))+(1),IF(("goto")=(INDEX(B1:XFD1,(A2)+(0))),((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),IF(("gotoiftrue")=(INDEX(B1:XFD1,(A2)+(0))),IF(B2,((INDEX(B1:XFD1,(A2)+(1)))*(2))+(1),(A203)+(2)),(A203)+(2)))),A203))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="B203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(B3),IF(("push")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(B1:XFD1,(A2)+(1)),IF(("load")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(F2:XFD2,INDEX(B1:XFD1,(A2)+(1))),IF(("newheap")=(INDEX(B1:XFD1,(A2)+(0))),(C3)-(2),IF(("getheap")=(INDEX(B1:XFD1,(A2)+(0))),INDEX(C4:C54,(B203)+(1)),IF(("add")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))+(B203),IF(("equals")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))=(B203),IF(("leq")=(INDEX(B1:XFD1,(A2)+(0))),(INDEX(B4:B54,(B3)+(1)))&lt;=(B203),B203))))))),B203))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF(AND((INDEX(B1:XFD1,(A2)+(0)))=("writeheap"),(INDEX(B4:B54,(B3)+(1)))=(199)),INDEX(B4:B54,(B3)+(2)),IF((A1)=(2),1,IF((200)=(C3),C203,C203))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(E3),IF(("outputline")=(INDEX(B1:XFD1,(A2)+(0))),B2,E203),E203))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(F3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("F"),"false"),B2,F203),F203))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(G3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("G"),"false"),B2,G203),G203))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H203" t="e">
+        <f ca="1">IF((A1)=(2),1,IF((200)=(H3),IF(IF((INDEX(B1:XFD1,(A2)+(0)))=("store"),(INDEX(B1:XFD1,(A2)+(1)))=("H"),"false"),B2,H203),H203))</f>
         <v>#VALUE!</v>
       </c>
     </row>
